--- a/05-25-25 to 05-31-25 Milwaukee Schedule.xlsx
+++ b/05-25-25 to 05-31-25 Milwaukee Schedule.xlsx
@@ -606,7 +606,11 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>White Camry oil change</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -2437,7 +2441,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>White Camry available, Equip</t>
+          <t>Red Van available, Equip</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>

--- a/05-25-25 to 05-31-25 Milwaukee Schedule.xlsx
+++ b/05-25-25 to 05-31-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y57"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3076,16 +3076,8 @@
           <t>12)</t>
         </is>
       </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>Kirsten</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3127,57 +3119,10 @@
           <t>13)</t>
         </is>
       </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Lena</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/05-25-25 to 05-31-25 Milwaukee Schedule.xlsx
+++ b/05-25-25 to 05-31-25 Milwaukee Schedule.xlsx
@@ -2721,7 +2721,11 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Until 12:15</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3071,11 +3075,7 @@
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
+      <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
@@ -3114,11 +3114,7 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>

--- a/05-25-25 to 05-31-25 Milwaukee Schedule.xlsx
+++ b/05-25-25 to 05-31-25 Milwaukee Schedule.xlsx
@@ -1368,7 +1368,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1425,10 +1425,14 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1476,7 +1480,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -1539,7 +1543,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -1602,7 +1606,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -1665,7 +1669,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1728,7 +1732,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -1797,7 +1801,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -1865,7 +1869,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -1929,7 +1933,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -1993,7 +1997,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -2052,12 +2056,13 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2107,13 +2112,12 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2156,21 +2160,9 @@
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2239,7 +2231,11 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>5:00 AM START</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2280,7 +2276,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2319,7 +2315,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ALBRECHT'S DELAFIELD MARKET</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2370,7 +2366,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>ALBRECHT'S DELAFIELD MARKET</t>
+          <t>3255 GOLF RD</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2413,7 +2409,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>3255 GOLF RD</t>
+          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2460,7 +2456,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
+          <t>*4:00 am Grafton Meet (Carlie, Tanner, Trevor)</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2501,11 +2497,7 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>*4:00 am Grafton Meet (Carlie, Tanner, Trevor)</t>
-        </is>
-      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2535,9 +2527,21 @@
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2580,17 +2584,17 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>White Camry available, Equip</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -2631,19 +2635,15 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2674,15 +2674,19 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Until 12:15</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2713,19 +2717,15 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>Until 12:15</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -2760,15 +2760,19 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -2803,19 +2807,15 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Until 11:00</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -2846,15 +2846,19 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr"/>
+          <t>Tanner</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -2897,12 +2901,12 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -2940,17 +2944,17 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -2979,12 +2983,12 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3028,21 +3032,9 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
